--- a/powerapp/data/delivery_point.xlsx
+++ b/powerapp/data/delivery_point.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF4A9B-53E8-E542-9BF4-846AB1DA50FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7595DF46-6F65-4C18-80F5-533AF6AEFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="delivery_point" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">delivery_point!$A$1:$E$712</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">delivery_point!$A$1:$E$710</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="653">
   <si>
     <t>kV</t>
   </si>
@@ -2004,7 +2004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2414,14 +2414,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <dimension ref="A1:E712"/>
+  <dimension ref="A1:E710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K681" sqref="K681"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F718" sqref="F718"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
@@ -2431,7 +2431,7 @@
     <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>586</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>605</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>605</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>284</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>284</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>285</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>285</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>286</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>286</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>287</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>287</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>288</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>288</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>289</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="4" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>289</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="4" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>290</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="7" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>290</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="7" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>291</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="7" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>291</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="7" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>292</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>292</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>293</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>293</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>294</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>294</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>295</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>295</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>296</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>297</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>297</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>298</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>298</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>299</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>299</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>300</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>300</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>301</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>301</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>302</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>302</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>303</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>303</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>304</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>304</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>305</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>305</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>306</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>306</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>307</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>307</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>308</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>308</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>309</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>309</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>310</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>310</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>310</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>311</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>311</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>312</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>312</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>313</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>313</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>314</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>314</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>315</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>315</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>316</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>316</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>317</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>317</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>318</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>318</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>318</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>319</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>319</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>320</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>320</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>578</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>578</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>321</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>321</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>322</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>322</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>322</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>323</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>323</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>324</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" s="7" customFormat="1">
       <c r="A90" s="2" t="s">
         <v>324</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" s="7" customFormat="1">
       <c r="A91" s="2" t="s">
         <v>324</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" s="7" customFormat="1">
       <c r="A92" s="2" t="s">
         <v>325</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>325</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>326</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>326</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>327</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>327</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>328</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>328</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>329</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>329</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
         <v>330</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" s="7" customFormat="1">
       <c r="A103" s="2" t="s">
         <v>330</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" s="7" customFormat="1">
       <c r="A104" s="2" t="s">
         <v>331</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
         <v>332</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>332</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>428</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
         <v>428</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
         <v>429</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>429</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>430</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>430</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>333</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
         <v>333</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
         <v>334</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
         <v>334</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
         <v>335</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
         <v>335</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
         <v>336</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
         <v>336</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
         <v>337</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
         <v>337</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
         <v>338</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
         <v>339</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
         <v>339</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
         <v>340</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
         <v>340</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
         <v>341</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
         <v>341</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
         <v>342</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
         <v>342</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
         <v>343</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
         <v>343</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
         <v>343</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
         <v>344</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" s="7" customFormat="1">
       <c r="A137" s="2" t="s">
         <v>344</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" s="7" customFormat="1">
       <c r="A138" s="2" t="s">
         <v>345</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" s="7" customFormat="1">
       <c r="A139" s="2" t="s">
         <v>345</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" s="7" customFormat="1">
       <c r="A140" s="2" t="s">
         <v>346</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
         <v>346</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
         <v>346</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
         <v>347</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
         <v>347</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
         <v>348</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
         <v>348</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
         <v>349</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" s="7" customFormat="1">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" s="7" customFormat="1">
       <c r="A149" s="2" t="s">
         <v>350</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
         <v>350</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>351</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
         <v>351</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
         <v>352</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
         <v>352</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
         <v>353</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
         <v>353</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
         <v>353</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
         <v>354</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
         <v>354</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
         <v>355</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
         <v>355</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
         <v>356</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
         <v>356</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
         <v>431</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
         <v>431</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
         <v>432</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
         <v>432</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
         <v>432</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
         <v>433</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
         <v>433</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
         <v>434</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
         <v>434</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
         <v>435</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
         <v>435</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
         <v>436</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
         <v>436</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
         <v>437</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
         <v>437</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
         <v>438</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
         <v>438</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
         <v>439</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
         <v>439</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
         <v>440</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
         <v>440</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
         <v>441</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
         <v>441</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
         <v>442</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
         <v>442</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
         <v>443</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
         <v>443</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
         <v>444</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
         <v>445</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
         <v>445</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
         <v>446</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
         <v>446</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" s="7" customFormat="1">
       <c r="A196" s="2" t="s">
         <v>357</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
         <v>357</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
         <v>358</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
         <v>358</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
         <v>359</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
         <v>359</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
         <v>360</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
         <v>360</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
         <v>361</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
         <v>361</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
         <v>362</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
         <v>362</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
         <v>585</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
         <v>585</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
         <v>363</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
         <v>363</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
         <v>364</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
         <v>364</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
         <v>447</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
         <v>447</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
         <v>448</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
         <v>448</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
         <v>449</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
         <v>449</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
         <v>450</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
         <v>450</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="14.5" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>451</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="14.5" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>451</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="14.5" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>452</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="14.5" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>452</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="14.5" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>453</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="14.5" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>453</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="14.5" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>454</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="14.5" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>454</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="14.5" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>455</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="14.5" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>455</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="14.5" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>456</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="14.5" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>456</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="14.5" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>457</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="14.5" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>457</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="14.5" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>458</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="14.5" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>458</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="14.5" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>459</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="14.5" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>459</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="14.5" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>460</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="14.5" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>460</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
         <v>461</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
         <v>461</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
         <v>462</v>
       </c>
@@ -6573,13 +6573,13 @@
         <v>583</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E244" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
         <v>462</v>
       </c>
@@ -6590,13 +6590,13 @@
         <v>583</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E245" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
         <v>463</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
         <v>463</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" s="7" customFormat="1">
       <c r="A248" s="2" t="s">
         <v>365</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" s="7" customFormat="1">
       <c r="A249" s="2" t="s">
         <v>365</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" s="7" customFormat="1">
       <c r="A250" s="2" t="s">
         <v>366</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="251" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" s="7" customFormat="1">
       <c r="A251" s="2" t="s">
         <v>366</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="252" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" s="7" customFormat="1">
       <c r="A252" s="2" t="s">
         <v>367</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" s="7" customFormat="1">
       <c r="A253" s="2" t="s">
         <v>367</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" s="7" customFormat="1">
       <c r="A254" s="2" t="s">
         <v>368</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="255" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" s="7" customFormat="1">
       <c r="A255" s="2" t="s">
         <v>368</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="256" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" s="7" customFormat="1">
       <c r="A256" s="2" t="s">
         <v>369</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="257" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" s="7" customFormat="1">
       <c r="A257" s="2" t="s">
         <v>369</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
         <v>369</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
         <v>370</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
         <v>370</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
         <v>371</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
         <v>371</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
         <v>372</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
         <v>372</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
         <v>373</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" s="7" customFormat="1">
       <c r="A266" s="2" t="s">
         <v>373</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" s="7" customFormat="1">
       <c r="A267" s="2" t="s">
         <v>374</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
         <v>374</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
         <v>464</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
         <v>464</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
         <v>465</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
         <v>465</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
         <v>466</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
         <v>466</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
         <v>467</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
         <v>467</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
         <v>375</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
         <v>375</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
         <v>375</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
         <v>376</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
         <v>376</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
         <v>581</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
         <v>581</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
         <v>377</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
         <v>377</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
         <v>378</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
         <v>378</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
         <v>379</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
         <v>379</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
         <v>380</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
         <v>380</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
         <v>380</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="2" t="s">
         <v>381</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="294" spans="1:5" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" s="7" customFormat="1">
       <c r="A294" s="2" t="s">
         <v>381</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="295" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" s="7" customFormat="1">
       <c r="A295" s="2" t="s">
         <v>382</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" s="7" customFormat="1">
       <c r="A296" s="2" t="s">
         <v>382</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="297" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" s="7" customFormat="1">
       <c r="A297" s="2" t="s">
         <v>383</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" s="7" customFormat="1">
       <c r="A298" s="2" t="s">
         <v>383</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" s="7" customFormat="1">
       <c r="A299" s="2" t="s">
         <v>384</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
         <v>384</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
         <v>385</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302" s="2" t="s">
         <v>385</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
         <v>386</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
         <v>386</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
         <v>387</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
         <v>387</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
         <v>388</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
         <v>388</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
         <v>389</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
         <v>389</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
         <v>604</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
         <v>604</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
         <v>390</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
         <v>390</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
         <v>391</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
         <v>391</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
         <v>392</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
         <v>392</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
         <v>393</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
         <v>393</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
         <v>393</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
         <v>393</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
         <v>394</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
         <v>394</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
         <v>394</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
         <v>395</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
         <v>395</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
         <v>396</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="329" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" s="7" customFormat="1">
       <c r="A329" s="2" t="s">
         <v>396</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="330" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" s="7" customFormat="1">
       <c r="A330" s="2" t="s">
         <v>397</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
         <v>397</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
         <v>398</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
         <v>398</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
         <v>468</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
         <v>468</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
         <v>469</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
         <v>469</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
         <v>469</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="14.5" customHeight="1">
       <c r="A339" s="2" t="s">
         <v>470</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="14.5" customHeight="1">
       <c r="A340" s="2" t="s">
         <v>470</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="14.5" customHeight="1">
       <c r="A341" s="2" t="s">
         <v>471</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="14.5" customHeight="1">
       <c r="A342" s="2" t="s">
         <v>471</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="14.5" customHeight="1">
       <c r="A343" s="2" t="s">
         <v>472</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="14.5" customHeight="1">
       <c r="A344" s="2" t="s">
         <v>472</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="14.5" customHeight="1">
       <c r="A345" s="2" t="s">
         <v>473</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="14.5" customHeight="1">
       <c r="A346" s="2" t="s">
         <v>473</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
         <v>474</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
         <v>474</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
         <v>475</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
         <v>475</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
         <v>476</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
         <v>476</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
         <v>477</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
         <v>477</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
         <v>478</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
         <v>478</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
         <v>479</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
         <v>479</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" s="7" customFormat="1">
       <c r="A359" s="2" t="s">
         <v>480</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" s="7" customFormat="1">
       <c r="A360" s="2" t="s">
         <v>480</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" s="7" customFormat="1">
       <c r="A361" s="2" t="s">
         <v>481</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" s="7" customFormat="1">
       <c r="A362" s="2" t="s">
         <v>481</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" s="7" customFormat="1">
       <c r="A363" s="2" t="s">
         <v>482</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" s="7" customFormat="1">
       <c r="A364" s="2" t="s">
         <v>482</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" s="7" customFormat="1">
       <c r="A365" s="2" t="s">
         <v>482</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" s="7" customFormat="1">
       <c r="A366" s="2" t="s">
         <v>482</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" s="7" customFormat="1">
       <c r="A367" s="2" t="s">
         <v>483</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" s="7" customFormat="1">
       <c r="A368" s="2" t="s">
         <v>483</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" s="7" customFormat="1">
       <c r="A369" s="2" t="s">
         <v>484</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" s="7" customFormat="1">
       <c r="A370" s="2" t="s">
         <v>484</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" s="7" customFormat="1">
       <c r="A371" s="2" t="s">
         <v>485</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" s="7" customFormat="1">
       <c r="A372" s="2" t="s">
         <v>485</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" s="7" customFormat="1">
       <c r="A373" s="2" t="s">
         <v>485</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
         <v>486</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
         <v>486</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
         <v>487</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
         <v>487</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
         <v>488</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
         <v>488</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
         <v>489</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
         <v>489</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
         <v>490</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
         <v>490</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
         <v>491</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
         <v>491</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
         <v>399</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
         <v>399</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
         <v>400</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
         <v>400</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
         <v>401</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
         <v>401</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
         <v>402</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
         <v>402</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
         <v>403</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
         <v>403</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
         <v>403</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
         <v>492</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
         <v>492</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
         <v>493</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
         <v>493</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
         <v>404</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
         <v>404</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
         <v>405</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
         <v>405</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
         <v>406</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
         <v>406</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
         <v>407</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
         <v>494</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
         <v>494</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
         <v>495</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
         <v>495</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
         <v>496</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
         <v>496</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
         <v>408</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
         <v>408</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
         <v>408</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5">
       <c r="A419" s="2" t="s">
         <v>409</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
         <v>409</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
         <v>409</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
         <v>410</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="423" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" s="7" customFormat="1">
       <c r="A423" s="2" t="s">
         <v>410</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5">
       <c r="A424" s="2" t="s">
         <v>497</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
         <v>497</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
         <v>497</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5">
       <c r="A427" s="2" t="s">
         <v>498</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
         <v>498</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5">
       <c r="A429" s="2" t="s">
         <v>499</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
         <v>499</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" s="7" customFormat="1">
       <c r="A431" s="2" t="s">
         <v>411</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5">
       <c r="A432" s="2" t="s">
         <v>411</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5">
       <c r="A433" s="2" t="s">
         <v>500</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5">
       <c r="A434" s="2" t="s">
         <v>500</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
         <v>501</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
         <v>501</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
         <v>502</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5">
       <c r="A438" s="2" t="s">
         <v>502</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5">
       <c r="A439" s="2" t="s">
         <v>503</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
         <v>503</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
         <v>504</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5">
       <c r="A442" s="2" t="s">
         <v>504</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5">
       <c r="A443" s="2" t="s">
         <v>504</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5">
       <c r="A444" s="2" t="s">
         <v>504</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5">
       <c r="A445" s="2" t="s">
         <v>505</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5">
       <c r="A446" s="2" t="s">
         <v>505</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5">
       <c r="A447" s="2" t="s">
         <v>506</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5">
       <c r="A448" s="2" t="s">
         <v>506</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5">
       <c r="A449" s="2" t="s">
         <v>507</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5">
       <c r="A450" s="2" t="s">
         <v>507</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
         <v>508</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5">
       <c r="A452" s="2" t="s">
         <v>508</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5">
       <c r="A453" s="2" t="s">
         <v>509</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5">
       <c r="A454" s="2" t="s">
         <v>509</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5">
       <c r="A455" s="2" t="s">
         <v>412</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
         <v>412</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="457" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" s="7" customFormat="1">
       <c r="A457" s="2" t="s">
         <v>510</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="458" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" s="7" customFormat="1">
       <c r="A458" s="2" t="s">
         <v>510</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="459" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" s="7" customFormat="1">
       <c r="A459" s="2" t="s">
         <v>511</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="460" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" s="7" customFormat="1">
       <c r="A460" s="2" t="s">
         <v>511</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="461" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" s="7" customFormat="1">
       <c r="A461" s="2" t="s">
         <v>512</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="462" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" s="7" customFormat="1">
       <c r="A462" s="2" t="s">
         <v>512</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="463" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" s="7" customFormat="1">
       <c r="A463" s="2" t="s">
         <v>513</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" s="7" customFormat="1">
       <c r="A464" s="2" t="s">
         <v>513</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" s="7" customFormat="1">
       <c r="A465" s="2" t="s">
         <v>514</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="466" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" s="7" customFormat="1">
       <c r="A466" s="2" t="s">
         <v>514</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
         <v>413</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
         <v>413</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5">
       <c r="A469" s="2" t="s">
         <v>515</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5">
       <c r="A470" s="2" t="s">
         <v>515</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
         <v>515</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5">
       <c r="A472" s="2" t="s">
         <v>515</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5">
       <c r="A473" s="2" t="s">
         <v>516</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
         <v>516</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5">
       <c r="A475" s="2" t="s">
         <v>517</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5">
       <c r="A476" s="2" t="s">
         <v>517</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
         <v>519</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
         <v>519</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
         <v>518</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
         <v>518</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5">
       <c r="A481" s="2" t="s">
         <v>518</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5">
       <c r="A482" s="2" t="s">
         <v>414</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5">
       <c r="A483" s="2" t="s">
         <v>414</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5">
       <c r="A484" s="2" t="s">
         <v>415</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5">
       <c r="A485" s="2" t="s">
         <v>415</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5">
       <c r="A486" s="2" t="s">
         <v>416</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5">
       <c r="A487" s="2" t="s">
         <v>416</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5">
       <c r="A488" s="2" t="s">
         <v>417</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5">
       <c r="A489" s="2" t="s">
         <v>417</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5">
       <c r="A490" s="2" t="s">
         <v>418</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5">
       <c r="A491" s="2" t="s">
         <v>418</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5">
       <c r="A492" s="2" t="s">
         <v>419</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5">
       <c r="A493" s="2" t="s">
         <v>419</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5">
       <c r="A494" s="2" t="s">
         <v>420</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5">
       <c r="A495" s="2" t="s">
         <v>420</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5">
       <c r="A496" s="2" t="s">
         <v>421</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5">
       <c r="A497" s="2" t="s">
         <v>421</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="14.5" customHeight="1">
       <c r="A498" s="2" t="s">
         <v>520</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="14.5" customHeight="1">
       <c r="A499" s="2" t="s">
         <v>520</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="14.5" customHeight="1">
       <c r="A500" s="2" t="s">
         <v>520</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" ht="14.5" customHeight="1">
       <c r="A501" s="2" t="s">
         <v>520</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" ht="14.5" customHeight="1">
       <c r="A502" s="2" t="s">
         <v>521</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" ht="14.5" customHeight="1">
       <c r="A503" s="2" t="s">
         <v>521</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="14.5" customHeight="1">
       <c r="A504" s="2" t="s">
         <v>522</v>
       </c>
@@ -10993,13 +10993,13 @@
         <v>583</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E504" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="14.5" customHeight="1">
       <c r="A505" s="2" t="s">
         <v>522</v>
       </c>
@@ -11010,13 +11010,13 @@
         <v>583</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E505" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="14.5" customHeight="1">
       <c r="A506" s="2" t="s">
         <v>523</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="14.5" customHeight="1">
       <c r="A507" s="2" t="s">
         <v>523</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="14.5" customHeight="1">
       <c r="A508" s="2" t="s">
         <v>524</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="14.5" customHeight="1">
       <c r="A509" s="2" t="s">
         <v>524</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5">
       <c r="A510" s="2" t="s">
         <v>525</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5">
       <c r="A511" s="2" t="s">
         <v>525</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5">
       <c r="A512" s="2" t="s">
         <v>525</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5">
       <c r="A513" s="2" t="s">
         <v>526</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5">
       <c r="A514" s="2" t="s">
         <v>526</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5">
       <c r="A515" s="2" t="s">
         <v>527</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5">
       <c r="A516" s="2" t="s">
         <v>527</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
         <v>527</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5">
       <c r="A518" s="2" t="s">
         <v>528</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
         <v>528</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5">
       <c r="A520" s="2" t="s">
         <v>529</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
         <v>529</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
         <v>530</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
         <v>530</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5">
       <c r="A524" s="2" t="s">
         <v>531</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
         <v>531</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
         <v>532</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
         <v>532</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5">
       <c r="A528" s="2" t="s">
         <v>533</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
         <v>533</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
         <v>534</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
         <v>534</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
         <v>535</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="533" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" s="4" customFormat="1">
       <c r="A533" s="2" t="s">
         <v>535</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="534" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" s="4" customFormat="1">
       <c r="A534" s="2" t="s">
         <v>536</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="535" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" s="4" customFormat="1">
       <c r="A535" s="2" t="s">
         <v>536</v>
       </c>
@@ -11526,148 +11526,148 @@
         <v>201</v>
       </c>
     </row>
-    <row r="536" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" s="4" customFormat="1">
       <c r="A536" s="2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E536" s="1" t="s">
+      <c r="E536" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" s="4" customFormat="1">
+      <c r="A537" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E537" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" s="4" customFormat="1">
+      <c r="A538" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E538" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="537" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C537" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D537" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E537" s="1" t="s">
+    <row r="539" spans="1:5" s="4" customFormat="1">
+      <c r="A539" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E539" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="538" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C538" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D538" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E538" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C539" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D539" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E539" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" s="4" customFormat="1">
       <c r="A540" s="2" t="s">
-        <v>537</v>
+        <v>430</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>582</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E540" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" s="4" customFormat="1">
+      <c r="A541" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" s="4" customFormat="1">
+      <c r="A542" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E542" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="541" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C541" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D541" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E541" s="1" t="s">
+    <row r="543" spans="1:5" s="4" customFormat="1">
+      <c r="A543" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E543" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="542" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D542" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E542" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C543" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D543" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E543" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" s="4" customFormat="1">
       <c r="A544" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>582</v>
@@ -11679,12 +11679,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="545" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" s="4" customFormat="1">
       <c r="A545" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C545" s="4" t="s">
         <v>582</v>
@@ -11696,46 +11696,46 @@
         <v>201</v>
       </c>
     </row>
-    <row r="546" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" s="4" customFormat="1">
       <c r="A546" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E546" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E546" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" s="4" customFormat="1">
       <c r="A547" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D547" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E547" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E547" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" s="4" customFormat="1">
       <c r="A548" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C548" s="4" t="s">
         <v>583</v>
@@ -11747,12 +11747,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="549" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" s="4" customFormat="1">
       <c r="A549" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C549" s="4" t="s">
         <v>583</v>
@@ -11764,12 +11764,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="550" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" s="4" customFormat="1">
       <c r="A550" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>583</v>
@@ -11781,12 +11781,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="551" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" s="4" customFormat="1">
       <c r="A551" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>583</v>
@@ -11798,182 +11798,182 @@
         <v>32</v>
       </c>
     </row>
-    <row r="552" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" s="4" customFormat="1">
       <c r="A552" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E552" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" s="4" customFormat="1">
       <c r="A553" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E553" s="1">
+        <v>197</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" s="4" customFormat="1">
+      <c r="A554" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E554" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" s="4" customFormat="1">
+      <c r="A555" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E555" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="554" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D554" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E554" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C555" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D555" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E555" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" s="4" customFormat="1">
       <c r="A556" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E556" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" s="4" customFormat="1">
       <c r="A557" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E557" s="1">
+        <v>197</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" s="4" customFormat="1">
+      <c r="A558" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" s="4" customFormat="1">
+      <c r="A559" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" s="4" customFormat="1">
+      <c r="A560" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E560" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" s="4" customFormat="1">
+      <c r="A561" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E561" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="558" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C558" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D558" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E558" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C559" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D559" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E559" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C560" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D560" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E560" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C561" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D561" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E561" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" s="4" customFormat="1">
       <c r="A562" s="2" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C562" s="4" t="s">
         <v>583</v>
@@ -11985,12 +11985,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="563" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" s="4" customFormat="1">
       <c r="A563" s="2" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C563" s="4" t="s">
         <v>583</v>
@@ -12002,80 +12002,80 @@
         <v>32</v>
       </c>
     </row>
-    <row r="564" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" s="4" customFormat="1">
       <c r="A564" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E564" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" s="4" customFormat="1">
       <c r="A565" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E565" s="1">
+        <v>197</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" s="4" customFormat="1">
+      <c r="A566" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C566" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D566" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E566" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" s="4" customFormat="1">
+      <c r="A567" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E567" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="566" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C566" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D566" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E566" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C567" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D567" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E567" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" s="4" customFormat="1">
       <c r="A568" s="2" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C568" s="4" t="s">
         <v>583</v>
@@ -12087,12 +12087,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="569" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" s="4" customFormat="1">
       <c r="A569" s="2" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>583</v>
@@ -12104,148 +12104,148 @@
         <v>32</v>
       </c>
     </row>
-    <row r="570" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" s="4" customFormat="1">
       <c r="A570" s="2" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D570" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E570" s="1">
+      <c r="E570" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" s="4" customFormat="1">
+      <c r="A571" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C571" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" s="4" customFormat="1">
+      <c r="A572" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C572" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D572" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E572" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="571" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C571" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D571" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E571" s="1">
+    <row r="573" spans="1:5" s="4" customFormat="1">
+      <c r="A573" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C573" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E573" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="572" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C572" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D572" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E572" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C573" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D573" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E573" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" s="4" customFormat="1">
       <c r="A574" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E574" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" s="4" customFormat="1">
       <c r="A575" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E575" s="1">
+        <v>197</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" s="4" customFormat="1">
+      <c r="A576" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C576" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E576" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" s="4" customFormat="1">
+      <c r="A577" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C577" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E577" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="576" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C576" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D576" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E576" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D577" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E577" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" s="4" customFormat="1">
       <c r="A578" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C578" s="4" t="s">
         <v>583</v>
@@ -12257,12 +12257,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="579" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" s="4" customFormat="1">
       <c r="A579" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C579" s="4" t="s">
         <v>583</v>
@@ -12274,46 +12274,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="580" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" s="4" customFormat="1">
       <c r="A580" s="2" t="s">
-        <v>461</v>
+        <v>552</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D580" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E580" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E580" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" s="4" customFormat="1">
       <c r="A581" s="2" t="s">
-        <v>461</v>
+        <v>552</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D581" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E581" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E581" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" s="4" customFormat="1">
       <c r="A582" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C582" s="4" t="s">
         <v>582</v>
@@ -12325,12 +12325,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="583" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" s="4" customFormat="1">
       <c r="A583" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C583" s="4" t="s">
         <v>582</v>
@@ -12342,12 +12342,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="584" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" s="4" customFormat="1">
       <c r="A584" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>582</v>
@@ -12359,12 +12359,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="585" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" s="4" customFormat="1">
       <c r="A585" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C585" s="4" t="s">
         <v>582</v>
@@ -12376,12 +12376,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="586" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" s="4" customFormat="1">
       <c r="A586" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C586" s="4" t="s">
         <v>582</v>
@@ -12393,12 +12393,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="587" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" s="4" customFormat="1">
       <c r="A587" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C587" s="4" t="s">
         <v>582</v>
@@ -12410,12 +12410,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="588" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" s="4" customFormat="1">
       <c r="A588" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C588" s="4" t="s">
         <v>582</v>
@@ -12427,12 +12427,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="589" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" s="4" customFormat="1">
       <c r="A589" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C589" s="4" t="s">
         <v>582</v>
@@ -12444,12 +12444,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="590" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" s="4" customFormat="1">
       <c r="A590" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C590" s="4" t="s">
         <v>582</v>
@@ -12461,12 +12461,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="591" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" s="4" customFormat="1">
       <c r="A591" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C591" s="4" t="s">
         <v>582</v>
@@ -12478,12 +12478,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="592" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" s="4" customFormat="1">
       <c r="A592" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C592" s="4" t="s">
         <v>582</v>
@@ -12495,12 +12495,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="593" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" s="4" customFormat="1">
       <c r="A593" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C593" s="4" t="s">
         <v>582</v>
@@ -12512,12 +12512,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="594" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" s="4" customFormat="1">
       <c r="A594" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C594" s="4" t="s">
         <v>582</v>
@@ -12529,12 +12529,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="595" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" s="4" customFormat="1">
       <c r="A595" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>582</v>
@@ -12546,12 +12546,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="596" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" s="4" customFormat="1">
       <c r="A596" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C596" s="4" t="s">
         <v>582</v>
@@ -12563,12 +12563,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="597" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" s="4" customFormat="1">
       <c r="A597" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C597" s="4" t="s">
         <v>582</v>
@@ -12580,12 +12580,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="598" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" s="4" customFormat="1">
       <c r="A598" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C598" s="4" t="s">
         <v>582</v>
@@ -12597,12 +12597,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="599" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" s="4" customFormat="1">
       <c r="A599" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>582</v>
@@ -12614,12 +12614,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="600" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" s="4" customFormat="1">
       <c r="A600" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>582</v>
@@ -12631,12 +12631,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="601" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" s="4" customFormat="1">
       <c r="A601" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C601" s="4" t="s">
         <v>582</v>
@@ -12648,12 +12648,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="602" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" s="4" customFormat="1">
       <c r="A602" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>582</v>
@@ -12665,12 +12665,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="603" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" s="4" customFormat="1">
       <c r="A603" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C603" s="4" t="s">
         <v>582</v>
@@ -12682,12 +12682,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="604" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" s="4" customFormat="1">
       <c r="A604" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C604" s="4" t="s">
         <v>582</v>
@@ -12699,12 +12699,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="605" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" s="4" customFormat="1">
       <c r="A605" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C605" s="4" t="s">
         <v>582</v>
@@ -12716,12 +12716,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="606" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" s="4" customFormat="1">
       <c r="A606" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>582</v>
@@ -12733,12 +12733,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="607" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" s="4" customFormat="1">
       <c r="A607" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C607" s="4" t="s">
         <v>582</v>
@@ -12750,12 +12750,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="608" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" s="4" customFormat="1">
       <c r="A608" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C608" s="4" t="s">
         <v>582</v>
@@ -12767,12 +12767,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="609" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" s="4" customFormat="1">
       <c r="A609" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C609" s="4" t="s">
         <v>582</v>
@@ -12784,12 +12784,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="610" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" s="4" customFormat="1">
       <c r="A610" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C610" s="4" t="s">
         <v>582</v>
@@ -12801,12 +12801,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="611" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" s="4" customFormat="1">
       <c r="A611" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C611" s="4" t="s">
         <v>582</v>
@@ -12818,80 +12818,80 @@
         <v>201</v>
       </c>
     </row>
-    <row r="612" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" s="4" customFormat="1">
       <c r="A612" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E612" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="613" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E612" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" s="4" customFormat="1">
       <c r="A613" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E613" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="E613" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" s="4" customFormat="1">
       <c r="A614" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E614" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="615" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" s="4" customFormat="1">
       <c r="A615" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E615" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="616" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" s="4" customFormat="1">
       <c r="A616" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>582</v>
@@ -12903,12 +12903,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="617" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" s="4" customFormat="1">
       <c r="A617" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C617" s="4" t="s">
         <v>582</v>
@@ -12920,12 +12920,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="618" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" s="4" customFormat="1">
       <c r="A618" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>582</v>
@@ -12937,12 +12937,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="619" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" s="4" customFormat="1">
       <c r="A619" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>582</v>
@@ -12954,12 +12954,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="620" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" s="4" customFormat="1">
       <c r="A620" s="2" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>582</v>
@@ -12971,12 +12971,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="621" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" s="4" customFormat="1">
       <c r="A621" s="2" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>582</v>
@@ -12988,12 +12988,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="622" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" s="4" customFormat="1">
       <c r="A622" s="2" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>582</v>
@@ -13005,12 +13005,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="623" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" s="4" customFormat="1">
       <c r="A623" s="2" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C623" s="4" t="s">
         <v>582</v>
@@ -13022,7 +13022,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="624" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" s="4" customFormat="1">
       <c r="A624" s="2" t="s">
         <v>572</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>582</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="625" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" s="4" customFormat="1">
       <c r="A625" s="2" t="s">
         <v>572</v>
       </c>
@@ -13050,52 +13050,52 @@
         <v>582</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E625" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" s="4" customFormat="1">
+      <c r="A626" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C626" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D626" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" s="4" customFormat="1">
+      <c r="A627" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E627" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="626" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C626" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D626" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E626" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="627" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C627" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D627" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E627" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="628" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" s="4" customFormat="1">
       <c r="A628" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C628" s="4" t="s">
         <v>582</v>
@@ -13107,12 +13107,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="629" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" s="4" customFormat="1">
       <c r="A629" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C629" s="4" t="s">
         <v>582</v>
@@ -13124,12 +13124,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="630" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" s="4" customFormat="1">
       <c r="A630" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>582</v>
@@ -13141,12 +13141,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="631" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" s="4" customFormat="1">
       <c r="A631" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C631" s="4" t="s">
         <v>582</v>
@@ -13158,12 +13158,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="632" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" s="4" customFormat="1">
       <c r="A632" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C632" s="4" t="s">
         <v>582</v>
@@ -13175,12 +13175,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="633" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" s="4" customFormat="1">
       <c r="A633" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>582</v>
@@ -13192,12 +13192,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="634" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" s="4" customFormat="1">
       <c r="A634" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C634" s="4" t="s">
         <v>582</v>
@@ -13209,12 +13209,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="635" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>582</v>
@@ -13226,12 +13226,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="636" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5">
       <c r="A636" s="2" t="s">
-        <v>577</v>
+        <v>422</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="C636" s="4" t="s">
         <v>582</v>
@@ -13243,12 +13243,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5">
       <c r="A637" s="2" t="s">
-        <v>577</v>
+        <v>422</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>582</v>
@@ -13260,114 +13260,114 @@
         <v>201</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5">
       <c r="A638" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D638" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E638" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E638" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
       <c r="A639" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D639" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E639" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E639" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
       <c r="A640" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E640" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
       <c r="A641" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E641" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
       <c r="A642" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="C642" s="4" t="s">
         <v>582</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
       <c r="A643" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>582</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
       <c r="A644" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="C644" s="4" t="s">
         <v>582</v>
@@ -13379,12 +13379,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5">
       <c r="A645" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="C645" s="4" t="s">
         <v>582</v>
@@ -13396,12 +13396,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5">
       <c r="A646" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="C646" s="4" t="s">
         <v>582</v>
@@ -13413,12 +13413,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5">
       <c r="A647" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="C647" s="4" t="s">
         <v>582</v>
@@ -13430,313 +13430,313 @@
         <v>201</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5">
       <c r="A648" s="2" t="s">
-        <v>427</v>
+        <v>587</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>88</v>
+        <v>588</v>
       </c>
       <c r="C648" s="4" t="s">
         <v>582</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E648" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C649" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E650" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A649" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C649" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D649" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E649" s="1" t="s">
+    <row r="651" spans="1:5">
+      <c r="A651" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C651" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E651" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A650" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C650" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D650" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E650" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A651" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C651" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D651" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E651" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5">
       <c r="A652" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D652" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E652" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E652" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
       <c r="A653" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D653" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E653" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E653" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
       <c r="A654" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E654" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
       <c r="A655" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E655" s="1">
+        <v>197</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C656" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C657" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E658" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C659" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E659" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A656" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C656" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D656" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E656" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A657" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C657" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D657" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E657" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A658" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C658" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D658" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E658" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A659" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B659" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C659" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D659" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E659" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5">
       <c r="A660" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E660" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
       <c r="A661" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E661" s="1">
+        <v>197</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E662" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C663" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E663" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A662" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C662" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D662" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E662" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A663" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C663" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D663" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E663" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5">
       <c r="A664" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E664" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
       <c r="A665" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E665" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
       <c r="A666" s="2" t="s">
         <v>600</v>
       </c>
@@ -13747,13 +13747,13 @@
         <v>582</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
       <c r="A667" s="2" t="s">
         <v>600</v>
       </c>
@@ -13764,86 +13764,80 @@
         <v>582</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
       <c r="A668" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E668" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="E668" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
       <c r="A669" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E669" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="E669" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
       <c r="A670" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C670" s="4" t="s">
-        <v>583</v>
+        <v>606</v>
+      </c>
+      <c r="C670" s="4">
+        <v>132</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E670" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
       <c r="A671" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C671" s="4" t="s">
-        <v>583</v>
+        <v>606</v>
+      </c>
+      <c r="C671" s="4">
+        <v>132</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E671" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
       <c r="A672" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C672" s="4">
         <v>132</v>
@@ -13852,12 +13846,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:4">
       <c r="A673" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C673" s="4">
         <v>132</v>
@@ -13866,12 +13860,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:4">
       <c r="A674" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C674" s="4">
         <v>132</v>
@@ -13880,26 +13874,26 @@
         <v>616</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:4">
       <c r="A675" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C675" s="4">
         <v>132</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4">
       <c r="A676" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C676" s="4">
         <v>132</v>
@@ -13908,26 +13902,26 @@
         <v>616</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:4">
       <c r="A677" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C677" s="4">
         <v>132</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
       <c r="A678" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C678" s="4">
         <v>132</v>
@@ -13936,12 +13930,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:4">
       <c r="A679" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C679" s="4">
         <v>132</v>
@@ -13950,12 +13944,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4">
       <c r="A680" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C680" s="4">
         <v>132</v>
@@ -13964,12 +13958,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4">
       <c r="A681" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C681" s="4">
         <v>132</v>
@@ -13978,96 +13972,96 @@
         <v>617</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4">
       <c r="A682" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C682" s="4">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="D682" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4">
       <c r="A683" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C683" s="4">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="D683" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:4">
       <c r="A684" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C684" s="4">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="D684" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:4">
       <c r="A685" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C685" s="4">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="D685" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4">
       <c r="A686" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C686" s="4">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="D686" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:4">
       <c r="A687" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C687" s="4">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="D687" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4">
       <c r="A688" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C688" s="4">
         <v>275</v>
@@ -14076,12 +14070,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:4">
       <c r="A689" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C689" s="4">
         <v>275</v>
@@ -14090,40 +14084,40 @@
         <v>617</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:4">
       <c r="A690" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C690" s="4">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="D690" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:4">
       <c r="A691" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C691" s="4">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="D691" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:4">
       <c r="A692" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C692" s="4">
         <v>132</v>
@@ -14132,35 +14126,35 @@
         <v>616</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:4">
       <c r="A693" s="2" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C693" s="4">
         <v>132</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
       <c r="A694" s="2" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C694" s="4">
         <v>132</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
       <c r="A695" s="2" t="s">
         <v>636</v>
       </c>
@@ -14171,136 +14165,136 @@
         <v>132</v>
       </c>
       <c r="D695" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C696" s="4">
+        <v>275</v>
+      </c>
+      <c r="D696" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B696" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C696" s="4">
+    <row r="697" spans="1:4">
+      <c r="A697" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C697" s="4">
+        <v>275</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C698" s="4">
         <v>132</v>
-      </c>
-      <c r="D696" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B697" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C697" s="4">
-        <v>132</v>
-      </c>
-      <c r="D697" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C698" s="4">
-        <v>275</v>
       </c>
       <c r="D698" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:4">
       <c r="A699" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C699" s="4">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="D699" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
       <c r="A700" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C700" s="4">
         <v>132</v>
       </c>
       <c r="D700" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
       <c r="A701" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C701" s="4">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="D701" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:4">
       <c r="A702" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C702" s="4">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="D702" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:4">
       <c r="A703" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C703" s="4">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="D703" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:4">
       <c r="A704" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C704" s="4">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="D704" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4">
       <c r="A705" s="2" t="s">
         <v>647</v>
       </c>
@@ -14311,10 +14305,10 @@
         <v>132</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
       <c r="A706" s="2" t="s">
         <v>647</v>
       </c>
@@ -14325,43 +14319,43 @@
         <v>132</v>
       </c>
       <c r="D706" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
       <c r="A707" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C707" s="4">
         <v>132</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
       <c r="A708" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C708" s="4">
         <v>132</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
       <c r="A709" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C709" s="4">
         <v>132</v>
@@ -14370,12 +14364,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4">
       <c r="A710" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C710" s="4">
         <v>132</v>
@@ -14384,37 +14378,9 @@
         <v>617</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C711" s="4">
-        <v>132</v>
-      </c>
-      <c r="D711" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C712" s="4">
-        <v>132</v>
-      </c>
-      <c r="D712" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A1:E712" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}"/>
+  <autoFilter ref="A1:E710" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
